--- a/biology/Botanique/Trichanthera_gigantea/Trichanthera_gigantea.xlsx
+++ b/biology/Botanique/Trichanthera_gigantea/Trichanthera_gigantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichanthera gigantea est une espèce de plantes dicotylédones de la famille des Acanthaceae, originaire d'Amérique du Sud et d'Amérique centrale . C'est l'unique espèce du genre Trichanthera (genre monotypique). C'est un petit arbre, pouvant atteindre 5 mètres de haut. L'espèce est cultivée dans certains pays pour ses feuilles riches en protéines.
 </t>
@@ -513,14 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (28 décembre 2019)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (28 décembre 2019) :
 Besleria surinamensis Miq.
 Clerodendrum verrucosum Splitg. ex de Vriese
 Ruellia gigantea Humb. &amp; Bonpl.
 Trixanthera angularis Raf.
-Liste des variétés
-Selon Tropicos                                           (28 décembre 2019)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trichanthera_gigantea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trichanthera_gigantea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (28 décembre 2019) :
 Trichanthera gigantea var. guianensis Gleason
 </t>
         </is>
